--- a/top_league_soccer/Excel/dados_laliga.xlsx
+++ b/top_league_soccer/Excel/dados_laliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -160,27 +160,27 @@
     <t>1.8</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.2</t>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
@@ -208,9 +208,6 @@
     <t>4.6</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
     <t>5.6</t>
   </si>
   <si>
@@ -238,12 +235,12 @@
     <t>84%</t>
   </si>
   <si>
+    <t>76%</t>
+  </si>
+  <si>
     <t>75%</t>
   </si>
   <si>
-    <t>76%</t>
-  </si>
-  <si>
     <t>60%</t>
   </si>
   <si>
@@ -280,7 +277,7 @@
     <t>59%</t>
   </si>
   <si>
-    <t>46%</t>
+    <t>47%</t>
   </si>
   <si>
     <t>44%</t>
@@ -313,16 +310,13 @@
     <t>2.76</t>
   </si>
   <si>
-    <t>3.38</t>
-  </si>
-  <si>
     <t>3.44</t>
   </si>
   <si>
     <t>3.04</t>
   </si>
   <si>
-    <t>2.63</t>
+    <t>2.72</t>
   </si>
   <si>
     <t>2.28</t>
@@ -753,13 +747,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -776,13 +770,13 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -799,13 +793,13 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -822,13 +816,13 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -848,10 +842,10 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -868,13 +862,13 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -888,16 +882,16 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -908,19 +902,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -934,16 +928,16 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -954,19 +948,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -977,19 +971,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1000,19 +994,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1026,16 +1020,16 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1049,16 +1043,16 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1072,16 +1066,16 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1095,16 +1089,16 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1118,16 +1112,16 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1141,16 +1135,16 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1164,16 +1158,16 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1187,16 +1181,16 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_laliga.xlsx
+++ b/top_league_soccer/Excel/dados_laliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -112,39 +112,39 @@
     <t>Athletic Club</t>
   </si>
   <si>
+    <t>Betis</t>
+  </si>
+  <si>
     <t>Real Sociedad</t>
   </si>
   <si>
-    <t>Betis</t>
-  </si>
-  <si>
     <t>Valencia</t>
   </si>
   <si>
     <t>Las Palmas</t>
   </si>
   <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Osasuna</t>
+    <t>Villarreal</t>
   </si>
   <si>
     <t>Alavés</t>
   </si>
   <si>
-    <t>Villarreal</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
     <t>Celta Vigo</t>
   </si>
   <si>
@@ -160,193 +160,202 @@
     <t>1.8</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.2</t>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>2.8</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.8</t>
+    <t>2.9</t>
   </si>
   <si>
     <t>1.7</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>6.0</t>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
   <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>4.0</t>
+    <t>4.2</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>68%</t>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>71%</t>
   </si>
   <si>
     <t>63%</t>
   </si>
   <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>71%</t>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>70%</t>
   </si>
   <si>
     <t>56%</t>
   </si>
   <si>
-    <t>79%</t>
-  </si>
-  <si>
     <t>52%</t>
   </si>
   <si>
-    <t>59%</t>
+    <t>62%</t>
   </si>
   <si>
     <t>47%</t>
   </si>
   <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>36%</t>
+    <t>34%</t>
   </si>
   <si>
     <t>48%</t>
   </si>
   <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
     <t>45%</t>
   </si>
   <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>3.28</t>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>2.70</t>
   </si>
   <si>
     <t>2.56</t>
   </si>
   <si>
-    <t>3.00</t>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.96</t>
   </si>
 </sst>
 </file>
@@ -747,13 +756,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -764,19 +773,19 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -787,19 +796,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -810,19 +819,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -833,19 +842,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -856,19 +865,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -879,19 +888,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -902,19 +911,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -925,19 +934,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -948,19 +957,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -971,19 +980,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -994,19 +1003,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1020,16 +1029,16 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1040,19 +1049,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1063,13 +1072,13 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -1086,19 +1095,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1109,19 +1118,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
         <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1132,19 +1141,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1158,16 +1167,16 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1181,16 +1190,16 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_laliga.xlsx
+++ b/top_league_soccer/Excel/dados_laliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -112,12 +112,12 @@
     <t>Athletic Club</t>
   </si>
   <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
     <t>Betis</t>
   </si>
   <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
     <t>Valencia</t>
   </si>
   <si>
@@ -127,12 +127,12 @@
     <t>Osasuna</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
     <t>Alavés</t>
   </si>
   <si>
@@ -160,34 +160,37 @@
     <t>1.8</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
     <t>2.3</t>
   </si>
   <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
   <si>
     <t>2.7</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>3.0</t>
   </si>
   <si>
     <t>2.5</t>
@@ -196,166 +199,166 @@
     <t>2.4</t>
   </si>
   <si>
-    <t>5.9</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.6</t>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.4</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
+    <t>5.8</t>
+  </si>
+  <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
   <si>
     <t>3.9</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>69%</t>
   </si>
   <si>
     <t>81%</t>
   </si>
   <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
     <t>46%</t>
   </si>
   <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>66%</t>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>32%</t>
   </si>
   <si>
     <t>29%</t>
   </si>
   <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>2.56</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.61</t>
   </si>
   <si>
     <t>2.07</t>
   </si>
   <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>2.96</t>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
 </sst>
 </file>
@@ -753,16 +756,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -773,19 +776,19 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -796,16 +799,16 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>99</v>
@@ -819,16 +822,16 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>100</v>
@@ -845,13 +848,13 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
         <v>101</v>
@@ -865,16 +868,16 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>102</v>
@@ -888,16 +891,16 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>103</v>
@@ -911,16 +914,16 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>104</v>
@@ -934,16 +937,16 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>105</v>
@@ -957,13 +960,13 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -983,13 +986,13 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
         <v>107</v>
@@ -1006,16 +1009,16 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1029,16 +1032,16 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1049,16 +1052,16 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
         <v>109</v>
@@ -1072,19 +1075,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1095,19 +1098,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1118,19 +1121,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1141,19 +1144,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1164,19 +1167,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1187,19 +1190,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_laliga.xlsx
+++ b/top_league_soccer/Excel/dados_laliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -100,12 +100,12 @@
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
     <t>Atlético Madrid</t>
   </si>
   <si>
@@ -121,33 +121,33 @@
     <t>Valencia</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>Las Palmas</t>
   </si>
   <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
     <t>Alavés</t>
   </si>
   <si>
-    <t>Sevilla</t>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
   </si>
   <si>
     <t>Mallorca</t>
   </si>
   <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
     <t>Cádiz</t>
   </si>
   <si>
@@ -160,205 +160,196 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
     <t>2.3</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>2.2</t>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
     <t>2.1</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>5.8</t>
   </si>
   <si>
     <t>6.1</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>4.3</t>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
   <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>82%</t>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>69%</t>
   </si>
   <si>
     <t>75%</t>
   </si>
   <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
     <t>72%</t>
   </si>
   <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
     <t>63%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>81%</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>39%</t>
   </si>
   <si>
     <t>46%</t>
   </si>
   <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>50%</t>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>31%</t>
   </si>
   <si>
     <t>25%</t>
   </si>
   <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>2.14</t>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>2.56</t>
   </si>
   <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>3.00</t>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>2.97</t>
   </si>
 </sst>
 </file>
@@ -756,16 +747,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -779,16 +770,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -802,16 +793,16 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -822,19 +813,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -848,16 +839,16 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -871,16 +862,16 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -891,19 +882,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -914,19 +905,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -937,19 +928,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -960,19 +951,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -983,19 +974,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1006,19 +997,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1029,19 +1020,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1055,16 +1046,16 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1075,19 +1066,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1098,19 +1089,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1121,19 +1112,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1147,16 +1138,16 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1170,16 +1161,16 @@
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1190,19 +1181,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
         <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_laliga.xlsx
+++ b/top_league_soccer/Excel/dados_laliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -112,12 +112,12 @@
     <t>Athletic Club</t>
   </si>
   <si>
+    <t>Betis</t>
+  </si>
+  <si>
     <t>Real Sociedad</t>
   </si>
   <si>
-    <t>Betis</t>
-  </si>
-  <si>
     <t>Valencia</t>
   </si>
   <si>
@@ -127,16 +127,19 @@
     <t>Getafe</t>
   </si>
   <si>
+    <t>Alavés</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>Osasuna</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>Las Palmas</t>
   </si>
   <si>
-    <t>Alavés</t>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Rayo Vallecano</t>
@@ -145,9 +148,6 @@
     <t>Celta Vigo</t>
   </si>
   <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
     <t>Cádiz</t>
   </si>
   <si>
@@ -163,193 +163,202 @@
     <t>2.3</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.4</t>
+    <t>2.1</t>
   </si>
   <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>6.1</t>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>4.8</t>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
   <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>81%</t>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>49%</t>
   </si>
   <si>
     <t>69%</t>
   </si>
   <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>53%</t>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>60%</t>
   </si>
   <si>
     <t>59%</t>
   </si>
   <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>25%</t>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>26%</t>
   </si>
   <si>
     <t>34%</t>
   </si>
   <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>2.06</t>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>2.94</t>
   </si>
   <si>
     <t>2.63</t>
   </si>
   <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>2.66</t>
+  </si>
+  <si>
     <t>2.09</t>
   </si>
   <si>
-    <t>2.94</t>
-  </si>
-  <si>
     <t>2.97</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
 </sst>
 </file>
@@ -747,16 +756,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -770,16 +779,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -793,16 +802,16 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -813,19 +822,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -839,16 +848,16 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -859,19 +868,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -882,19 +891,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -905,19 +914,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -931,16 +940,16 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -954,16 +963,16 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -974,19 +983,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -997,19 +1006,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1020,13 +1029,13 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1046,16 +1055,16 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1069,16 +1078,16 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1089,19 +1098,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1112,19 +1121,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1135,19 +1144,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1158,19 +1167,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1181,19 +1190,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
